--- a/Merged.xlsx
+++ b/Merged.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syafi\Downloads\archive\Fitabase Data 4.12.16-5.12.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syafi\Downloads\CMPSC442-final-project-optapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06ADE36-6920-451C-94BC-7A973496A091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608A6113-B4A6-4E0D-85E4-1125752841AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6AE3290A-991E-478F-B20F-7FDF14454A9F}"/>
+    <workbookView xWindow="348" yWindow="432" windowWidth="17280" windowHeight="8964" xr2:uid="{6AE3290A-991E-478F-B20F-7FDF14454A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Sophie</t>
-  </si>
-  <si>
-    <t>Kiernan</t>
   </si>
   <si>
     <t>Mark</t>
@@ -471,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A9CE2-8C9F-4BD8-BFB1-A42B592600CC}">
   <dimension ref="A1:S414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H212" sqref="H11:H212"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +543,7 @@
         <v>1503960366</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>42472</v>
@@ -605,7 +602,7 @@
         <v>1503960366</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>42473</v>
@@ -664,7 +661,7 @@
         <v>1503960366</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>42475</v>
@@ -723,7 +720,7 @@
         <v>1503960366</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>42476</v>
@@ -782,7 +779,7 @@
         <v>1503960366</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>42477</v>
@@ -841,7 +838,7 @@
         <v>1503960366</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>42479</v>
@@ -900,7 +897,7 @@
         <v>1503960366</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>42480</v>
@@ -959,7 +956,7 @@
         <v>1503960366</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>42481</v>
@@ -1018,7 +1015,7 @@
         <v>1503960366</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>42483</v>
@@ -1077,7 +1074,7 @@
         <v>1503960366</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>42484</v>
@@ -1136,7 +1133,7 @@
         <v>1503960366</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>42485</v>
@@ -1195,7 +1192,7 @@
         <v>1503960366</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>42486</v>
@@ -1254,7 +1251,7 @@
         <v>1503960366</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>42488</v>
@@ -1313,7 +1310,7 @@
         <v>1503960366</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <v>42489</v>
@@ -1372,7 +1369,7 @@
         <v>1503960366</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
         <v>42490</v>
@@ -1431,7 +1428,7 @@
         <v>1503960366</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>42491</v>
@@ -1490,7 +1487,7 @@
         <v>1503960366</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>42492</v>
@@ -1549,7 +1546,7 @@
         <v>1503960366</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
         <v>42493</v>
@@ -1608,7 +1605,7 @@
         <v>1503960366</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>42495</v>
@@ -1667,7 +1664,7 @@
         <v>1503960366</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>42496</v>
@@ -1726,7 +1723,7 @@
         <v>1503960366</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>42497</v>
@@ -1785,7 +1782,7 @@
         <v>1503960366</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>42498</v>
@@ -1844,7 +1841,7 @@
         <v>1503960366</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <v>42499</v>
@@ -1903,7 +1900,7 @@
         <v>1503960366</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <v>42500</v>
@@ -1962,7 +1959,7 @@
         <v>1503960366</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
         <v>42501</v>
@@ -2257,7 +2254,7 @@
         <v>1844505072</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1">
         <v>42475</v>
@@ -2316,7 +2313,7 @@
         <v>1844505072</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>42490</v>
@@ -2375,7 +2372,7 @@
         <v>1844505072</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1">
         <v>42491</v>
@@ -2434,7 +2431,7 @@
         <v>1927972279</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1">
         <v>42472</v>
@@ -2493,7 +2490,7 @@
         <v>1927972279</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1">
         <v>42473</v>
@@ -2552,7 +2549,7 @@
         <v>1927972279</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
         <v>42475</v>
@@ -2611,7 +2608,7 @@
         <v>1927972279</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1">
         <v>42486</v>
@@ -2670,7 +2667,7 @@
         <v>1927972279</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
         <v>42488</v>
@@ -2729,7 +2726,7 @@
         <v>2026352035</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
         <v>42472</v>
@@ -2788,7 +2785,7 @@
         <v>2026352035</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
         <v>42473</v>
@@ -2847,7 +2844,7 @@
         <v>2026352035</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1">
         <v>42474</v>
@@ -2906,7 +2903,7 @@
         <v>2026352035</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
         <v>42475</v>
@@ -2965,7 +2962,7 @@
         <v>2026352035</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1">
         <v>42476</v>
@@ -3024,7 +3021,7 @@
         <v>2026352035</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
         <v>42477</v>
@@ -3083,7 +3080,7 @@
         <v>2026352035</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1">
         <v>42479</v>
@@ -3142,7 +3139,7 @@
         <v>2026352035</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
         <v>42480</v>
@@ -3201,7 +3198,7 @@
         <v>2026352035</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
         <v>42481</v>
@@ -3260,7 +3257,7 @@
         <v>2026352035</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1">
         <v>42482</v>
@@ -3319,7 +3316,7 @@
         <v>2026352035</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="1">
         <v>42483</v>
@@ -3378,7 +3375,7 @@
         <v>2026352035</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
         <v>42484</v>
@@ -3437,7 +3434,7 @@
         <v>2026352035</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1">
         <v>42485</v>
@@ -3496,7 +3493,7 @@
         <v>2026352035</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1">
         <v>42487</v>
@@ -3555,7 +3552,7 @@
         <v>2026352035</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1">
         <v>42488</v>
@@ -3614,7 +3611,7 @@
         <v>2026352035</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
         <v>42489</v>
@@ -3673,7 +3670,7 @@
         <v>2026352035</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1">
         <v>42490</v>
@@ -3732,7 +3729,7 @@
         <v>2026352035</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1">
         <v>42491</v>
@@ -3791,7 +3788,7 @@
         <v>2026352035</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1">
         <v>42492</v>
@@ -3850,7 +3847,7 @@
         <v>2026352035</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1">
         <v>42494</v>
@@ -3909,7 +3906,7 @@
         <v>2026352035</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1">
         <v>42495</v>
@@ -3968,7 +3965,7 @@
         <v>2026352035</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1">
         <v>42496</v>
@@ -4027,7 +4024,7 @@
         <v>2026352035</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1">
         <v>42497</v>
@@ -4086,7 +4083,7 @@
         <v>2026352035</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1">
         <v>42498</v>
@@ -4145,7 +4142,7 @@
         <v>2026352035</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1">
         <v>42499</v>
@@ -4204,7 +4201,7 @@
         <v>2026352035</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1">
         <v>42500</v>
@@ -4263,7 +4260,7 @@
         <v>2026352035</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1">
         <v>42501</v>
@@ -4322,7 +4319,7 @@
         <v>2026352035</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1">
         <v>42502</v>
@@ -4381,7 +4378,7 @@
         <v>2320127002</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" s="1">
         <v>42483</v>
@@ -5325,7 +5322,7 @@
         <v>3977333714</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" s="1">
         <v>42472</v>
@@ -5384,7 +5381,7 @@
         <v>3977333714</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C84" s="1">
         <v>42473</v>
@@ -5443,7 +5440,7 @@
         <v>3977333714</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85" s="1">
         <v>42474</v>
@@ -5502,7 +5499,7 @@
         <v>3977333714</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C86" s="1">
         <v>42475</v>
@@ -5561,7 +5558,7 @@
         <v>3977333714</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87" s="1">
         <v>42476</v>
@@ -5620,7 +5617,7 @@
         <v>3977333714</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88" s="1">
         <v>42477</v>
@@ -5679,7 +5676,7 @@
         <v>3977333714</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C89" s="1">
         <v>42478</v>
@@ -5738,7 +5735,7 @@
         <v>3977333714</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C90" s="1">
         <v>42479</v>
@@ -5797,7 +5794,7 @@
         <v>3977333714</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1">
         <v>42480</v>
@@ -5856,7 +5853,7 @@
         <v>3977333714</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C92" s="1">
         <v>42481</v>
@@ -5915,7 +5912,7 @@
         <v>3977333714</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C93" s="1">
         <v>42482</v>
@@ -5974,7 +5971,7 @@
         <v>3977333714</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C94" s="1">
         <v>42483</v>
@@ -6033,7 +6030,7 @@
         <v>3977333714</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C95" s="1">
         <v>42484</v>
@@ -6092,7 +6089,7 @@
         <v>3977333714</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C96" s="1">
         <v>42485</v>
@@ -6151,7 +6148,7 @@
         <v>3977333714</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" s="1">
         <v>42486</v>
@@ -6210,7 +6207,7 @@
         <v>3977333714</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C98" s="1">
         <v>42487</v>
@@ -6269,7 +6266,7 @@
         <v>3977333714</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C99" s="1">
         <v>42488</v>
@@ -6328,7 +6325,7 @@
         <v>3977333714</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C100" s="1">
         <v>42489</v>
@@ -6387,7 +6384,7 @@
         <v>3977333714</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" s="1">
         <v>42490</v>
@@ -6446,7 +6443,7 @@
         <v>3977333714</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102" s="1">
         <v>42491</v>
@@ -6505,7 +6502,7 @@
         <v>3977333714</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C103" s="1">
         <v>42492</v>
@@ -6564,7 +6561,7 @@
         <v>3977333714</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C104" s="1">
         <v>42493</v>
@@ -6623,7 +6620,7 @@
         <v>3977333714</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C105" s="1">
         <v>42494</v>
@@ -6682,7 +6679,7 @@
         <v>3977333714</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106" s="1">
         <v>42495</v>
@@ -6741,7 +6738,7 @@
         <v>3977333714</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C107" s="1">
         <v>42496</v>
@@ -6800,7 +6797,7 @@
         <v>3977333714</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C108" s="1">
         <v>42497</v>
@@ -6859,7 +6856,7 @@
         <v>3977333714</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109" s="1">
         <v>42498</v>
@@ -6918,7 +6915,7 @@
         <v>3977333714</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C110" s="1">
         <v>42500</v>
@@ -6977,7 +6974,7 @@
         <v>4020332650</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C111" s="1">
         <v>42472</v>
@@ -7036,7 +7033,7 @@
         <v>4020332650</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C112" s="1">
         <v>42476</v>
@@ -7095,7 +7092,7 @@
         <v>4020332650</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C113" s="1">
         <v>42493</v>
@@ -7154,7 +7151,7 @@
         <v>4020332650</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C114" s="1">
         <v>42494</v>
@@ -7213,7 +7210,7 @@
         <v>4020332650</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C115" s="1">
         <v>42495</v>
@@ -7272,7 +7269,7 @@
         <v>4020332650</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C116" s="1">
         <v>42496</v>
@@ -7331,7 +7328,7 @@
         <v>4020332650</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C117" s="1">
         <v>42498</v>
@@ -7390,7 +7387,7 @@
         <v>4020332650</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C118" s="1">
         <v>42500</v>
@@ -7449,7 +7446,7 @@
         <v>4319703577</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C119" s="1">
         <v>42474</v>
@@ -7508,7 +7505,7 @@
         <v>4319703577</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C120" s="1">
         <v>42475</v>
@@ -7567,7 +7564,7 @@
         <v>4319703577</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C121" s="1">
         <v>42476</v>
@@ -7626,7 +7623,7 @@
         <v>4319703577</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C122" s="1">
         <v>42478</v>
@@ -7685,7 +7682,7 @@
         <v>4319703577</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C123" s="1">
         <v>42479</v>
@@ -7744,7 +7741,7 @@
         <v>4319703577</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C124" s="1">
         <v>42480</v>
@@ -7803,7 +7800,7 @@
         <v>4319703577</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C125" s="1">
         <v>42481</v>
@@ -7862,7 +7859,7 @@
         <v>4319703577</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C126" s="1">
         <v>42482</v>
@@ -7921,7 +7918,7 @@
         <v>4319703577</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C127" s="1">
         <v>42483</v>
@@ -7980,7 +7977,7 @@
         <v>4319703577</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C128" s="1">
         <v>42484</v>
@@ -8039,7 +8036,7 @@
         <v>4319703577</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C129" s="1">
         <v>42485</v>
@@ -8098,7 +8095,7 @@
         <v>4319703577</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C130" s="1">
         <v>42486</v>
@@ -8157,7 +8154,7 @@
         <v>4319703577</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C131" s="1">
         <v>42487</v>
@@ -8216,7 +8213,7 @@
         <v>4319703577</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C132" s="1">
         <v>42488</v>
@@ -8275,7 +8272,7 @@
         <v>4319703577</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C133" s="1">
         <v>42489</v>
@@ -8334,7 +8331,7 @@
         <v>4319703577</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C134" s="1">
         <v>42490</v>
@@ -8393,7 +8390,7 @@
         <v>4319703577</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C135" s="1">
         <v>42491</v>
@@ -8452,7 +8449,7 @@
         <v>4319703577</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C136" s="1">
         <v>42492</v>
@@ -8511,7 +8508,7 @@
         <v>4319703577</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C137" s="1">
         <v>42493</v>
@@ -8570,7 +8567,7 @@
         <v>4319703577</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C138" s="1">
         <v>42496</v>
@@ -8629,7 +8626,7 @@
         <v>4319703577</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C139" s="1">
         <v>42497</v>
@@ -8688,7 +8685,7 @@
         <v>4319703577</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C140" s="1">
         <v>42498</v>
@@ -8747,7 +8744,7 @@
         <v>4319703577</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C141" s="1">
         <v>42499</v>
@@ -8806,7 +8803,7 @@
         <v>4319703577</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C142" s="1">
         <v>42500</v>
@@ -8865,7 +8862,7 @@
         <v>4319703577</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C143" s="1">
         <v>42501</v>
@@ -8924,7 +8921,7 @@
         <v>4319703577</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C144" s="1">
         <v>42502</v>
@@ -8983,7 +8980,7 @@
         <v>4388161847</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C145" s="1">
         <v>42475</v>
@@ -9042,7 +9039,7 @@
         <v>4388161847</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C146" s="1">
         <v>42476</v>
@@ -9101,7 +9098,7 @@
         <v>4388161847</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C147" s="1">
         <v>42477</v>
@@ -9160,7 +9157,7 @@
         <v>4388161847</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C148" s="1">
         <v>42478</v>
@@ -9219,7 +9216,7 @@
         <v>4388161847</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C149" s="1">
         <v>42479</v>
@@ -9278,7 +9275,7 @@
         <v>4388161847</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C150" s="1">
         <v>42480</v>
@@ -9337,7 +9334,7 @@
         <v>4388161847</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C151" s="1">
         <v>42481</v>
@@ -9396,7 +9393,7 @@
         <v>4388161847</v>
       </c>
       <c r="B152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C152" s="1">
         <v>42482</v>
@@ -9455,7 +9452,7 @@
         <v>4388161847</v>
       </c>
       <c r="B153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C153" s="1">
         <v>42483</v>
@@ -9514,7 +9511,7 @@
         <v>4388161847</v>
       </c>
       <c r="B154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C154" s="1">
         <v>42484</v>
@@ -9573,7 +9570,7 @@
         <v>4388161847</v>
       </c>
       <c r="B155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C155" s="1">
         <v>42486</v>
@@ -9632,7 +9629,7 @@
         <v>4388161847</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C156" s="1">
         <v>42487</v>
@@ -9691,7 +9688,7 @@
         <v>4388161847</v>
       </c>
       <c r="B157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C157" s="1">
         <v>42488</v>
@@ -9750,7 +9747,7 @@
         <v>4388161847</v>
       </c>
       <c r="B158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C158" s="1">
         <v>42490</v>
@@ -9809,7 +9806,7 @@
         <v>4388161847</v>
       </c>
       <c r="B159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C159" s="1">
         <v>42491</v>
@@ -9868,7 +9865,7 @@
         <v>4388161847</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C160" s="1">
         <v>42492</v>
@@ -9927,7 +9924,7 @@
         <v>4388161847</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C161" s="1">
         <v>42494</v>
@@ -9986,7 +9983,7 @@
         <v>4388161847</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C162" s="1">
         <v>42495</v>
@@ -10045,7 +10042,7 @@
         <v>4388161847</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C163" s="1">
         <v>42495</v>
@@ -10104,7 +10101,7 @@
         <v>4388161847</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C164" s="1">
         <v>42497</v>
@@ -10163,7 +10160,7 @@
         <v>4388161847</v>
       </c>
       <c r="B165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C165" s="1">
         <v>42498</v>
@@ -10222,7 +10219,7 @@
         <v>4388161847</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C166" s="1">
         <v>42499</v>
@@ -10281,7 +10278,7 @@
         <v>4388161847</v>
       </c>
       <c r="B167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C167" s="1">
         <v>42500</v>
@@ -10340,7 +10337,7 @@
         <v>4388161847</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C168" s="1">
         <v>42501</v>
@@ -10399,7 +10396,7 @@
         <v>4445114986</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C169" s="1">
         <v>42472</v>
@@ -10458,7 +10455,7 @@
         <v>4445114986</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C170" s="1">
         <v>42473</v>
@@ -10517,7 +10514,7 @@
         <v>4445114986</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C171" s="1">
         <v>42474</v>
@@ -10576,7 +10573,7 @@
         <v>4445114986</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C172" s="1">
         <v>42475</v>
@@ -10635,7 +10632,7 @@
         <v>4445114986</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C173" s="1">
         <v>42476</v>
@@ -10694,7 +10691,7 @@
         <v>4445114986</v>
       </c>
       <c r="B174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C174" s="1">
         <v>42477</v>
@@ -10753,7 +10750,7 @@
         <v>4445114986</v>
       </c>
       <c r="B175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C175" s="1">
         <v>42479</v>
@@ -10812,7 +10809,7 @@
         <v>4445114986</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C176" s="1">
         <v>42480</v>
@@ -10871,7 +10868,7 @@
         <v>4445114986</v>
       </c>
       <c r="B177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C177" s="1">
         <v>42481</v>
@@ -10930,7 +10927,7 @@
         <v>4445114986</v>
       </c>
       <c r="B178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C178" s="1">
         <v>42482</v>
@@ -10989,7 +10986,7 @@
         <v>4445114986</v>
       </c>
       <c r="B179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C179" s="1">
         <v>42485</v>
@@ -11048,7 +11045,7 @@
         <v>4445114986</v>
       </c>
       <c r="B180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C180" s="1">
         <v>42486</v>
@@ -11107,7 +11104,7 @@
         <v>4445114986</v>
       </c>
       <c r="B181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C181" s="1">
         <v>42487</v>
@@ -11166,7 +11163,7 @@
         <v>4445114986</v>
       </c>
       <c r="B182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C182" s="1">
         <v>42488</v>
@@ -11225,7 +11222,7 @@
         <v>4445114986</v>
       </c>
       <c r="B183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C183" s="1">
         <v>42489</v>
@@ -11284,7 +11281,7 @@
         <v>4445114986</v>
       </c>
       <c r="B184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C184" s="1">
         <v>42490</v>
@@ -11343,7 +11340,7 @@
         <v>4445114986</v>
       </c>
       <c r="B185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C185" s="1">
         <v>42491</v>
@@ -11402,7 +11399,7 @@
         <v>4445114986</v>
       </c>
       <c r="B186" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C186" s="1">
         <v>42492</v>
@@ -11461,7 +11458,7 @@
         <v>4445114986</v>
       </c>
       <c r="B187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C187" s="1">
         <v>42493</v>
@@ -11520,7 +11517,7 @@
         <v>4445114986</v>
       </c>
       <c r="B188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C188" s="1">
         <v>42494</v>
@@ -11579,7 +11576,7 @@
         <v>4445114986</v>
       </c>
       <c r="B189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C189" s="1">
         <v>42495</v>
@@ -11638,7 +11635,7 @@
         <v>4445114986</v>
       </c>
       <c r="B190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C190" s="1">
         <v>42496</v>
@@ -11697,7 +11694,7 @@
         <v>4445114986</v>
       </c>
       <c r="B191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C191" s="1">
         <v>42497</v>
@@ -11756,7 +11753,7 @@
         <v>4445114986</v>
       </c>
       <c r="B192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C192" s="1">
         <v>42498</v>
@@ -11815,7 +11812,7 @@
         <v>4445114986</v>
       </c>
       <c r="B193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C193" s="1">
         <v>42499</v>
@@ -11874,7 +11871,7 @@
         <v>4445114986</v>
       </c>
       <c r="B194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C194" s="1">
         <v>42500</v>
@@ -11933,7 +11930,7 @@
         <v>4445114986</v>
       </c>
       <c r="B195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C195" s="1">
         <v>42501</v>
@@ -11992,7 +11989,7 @@
         <v>4445114986</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C196" s="1">
         <v>42502</v>
@@ -12051,7 +12048,7 @@
         <v>4558609924</v>
       </c>
       <c r="B197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C197" s="1">
         <v>42481</v>
@@ -12110,7 +12107,7 @@
         <v>4558609924</v>
       </c>
       <c r="B198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C198" s="1">
         <v>42486</v>
@@ -12169,7 +12166,7 @@
         <v>4558609924</v>
       </c>
       <c r="B199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C199" s="1">
         <v>42489</v>
@@ -12228,7 +12225,7 @@
         <v>4558609924</v>
       </c>
       <c r="B200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C200" s="1">
         <v>42491</v>
@@ -12287,7 +12284,7 @@
         <v>4558609924</v>
       </c>
       <c r="B201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C201" s="1">
         <v>42498</v>
@@ -12346,7 +12343,7 @@
         <v>4702921684</v>
       </c>
       <c r="B202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C202" s="1">
         <v>42472</v>
@@ -12405,7 +12402,7 @@
         <v>4702921684</v>
       </c>
       <c r="B203" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C203" s="1">
         <v>42473</v>
@@ -12464,7 +12461,7 @@
         <v>4702921684</v>
       </c>
       <c r="B204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C204" s="1">
         <v>42474</v>
@@ -12523,7 +12520,7 @@
         <v>4702921684</v>
       </c>
       <c r="B205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C205" s="1">
         <v>42475</v>
@@ -12582,7 +12579,7 @@
         <v>4702921684</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C206" s="1">
         <v>42476</v>
@@ -12641,7 +12638,7 @@
         <v>4702921684</v>
       </c>
       <c r="B207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C207" s="1">
         <v>42477</v>
@@ -12700,7 +12697,7 @@
         <v>4702921684</v>
       </c>
       <c r="B208" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C208" s="1">
         <v>42478</v>
@@ -12759,7 +12756,7 @@
         <v>4702921684</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C209" s="1">
         <v>42479</v>
@@ -12818,7 +12815,7 @@
         <v>4702921684</v>
       </c>
       <c r="B210" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C210" s="1">
         <v>42480</v>
@@ -12877,7 +12874,7 @@
         <v>4702921684</v>
       </c>
       <c r="B211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C211" s="1">
         <v>42481</v>
@@ -12936,7 +12933,7 @@
         <v>4702921684</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C212" s="1">
         <v>42483</v>
@@ -12995,7 +12992,7 @@
         <v>4702921684</v>
       </c>
       <c r="B213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C213" s="1">
         <v>42484</v>
@@ -13054,7 +13051,7 @@
         <v>4702921684</v>
       </c>
       <c r="B214" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C214" s="1">
         <v>42485</v>
@@ -13113,7 +13110,7 @@
         <v>4702921684</v>
       </c>
       <c r="B215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C215" s="1">
         <v>42486</v>
@@ -13172,7 +13169,7 @@
         <v>4702921684</v>
       </c>
       <c r="B216" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C216" s="1">
         <v>42487</v>
@@ -13231,7 +13228,7 @@
         <v>4702921684</v>
       </c>
       <c r="B217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C217" s="1">
         <v>42488</v>
@@ -13290,7 +13287,7 @@
         <v>4702921684</v>
       </c>
       <c r="B218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C218" s="1">
         <v>42489</v>
@@ -13349,7 +13346,7 @@
         <v>4702921684</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C219" s="1">
         <v>42490</v>
@@ -13408,7 +13405,7 @@
         <v>4702921684</v>
       </c>
       <c r="B220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C220" s="1">
         <v>42493</v>
@@ -13467,7 +13464,7 @@
         <v>4702921684</v>
       </c>
       <c r="B221" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C221" s="1">
         <v>42494</v>
@@ -13526,7 +13523,7 @@
         <v>4702921684</v>
       </c>
       <c r="B222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C222" s="1">
         <v>42495</v>
@@ -13585,7 +13582,7 @@
         <v>4702921684</v>
       </c>
       <c r="B223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C223" s="1">
         <v>42496</v>
@@ -13644,7 +13641,7 @@
         <v>4702921684</v>
       </c>
       <c r="B224" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C224" s="1">
         <v>42497</v>
@@ -13703,7 +13700,7 @@
         <v>4702921684</v>
       </c>
       <c r="B225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C225" s="1">
         <v>42497</v>
@@ -13762,7 +13759,7 @@
         <v>4702921684</v>
       </c>
       <c r="B226" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C226" s="1">
         <v>42499</v>
@@ -13821,7 +13818,7 @@
         <v>4702921684</v>
       </c>
       <c r="B227" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C227" s="1">
         <v>42500</v>
@@ -13880,7 +13877,7 @@
         <v>4702921684</v>
       </c>
       <c r="B228" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C228" s="1">
         <v>42501</v>
@@ -13939,7 +13936,7 @@
         <v>4702921684</v>
       </c>
       <c r="B229" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C229" s="1">
         <v>42502</v>
@@ -13998,7 +13995,7 @@
         <v>5553957443</v>
       </c>
       <c r="B230" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C230" s="1">
         <v>42472</v>
@@ -14057,7 +14054,7 @@
         <v>5553957443</v>
       </c>
       <c r="B231" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C231" s="1">
         <v>42473</v>
@@ -14116,7 +14113,7 @@
         <v>5553957443</v>
       </c>
       <c r="B232" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C232" s="1">
         <v>42474</v>
@@ -14175,7 +14172,7 @@
         <v>5553957443</v>
       </c>
       <c r="B233" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C233" s="1">
         <v>42475</v>
@@ -14234,7 +14231,7 @@
         <v>5553957443</v>
       </c>
       <c r="B234" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C234" s="1">
         <v>42476</v>
@@ -14293,7 +14290,7 @@
         <v>5553957443</v>
       </c>
       <c r="B235" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C235" s="1">
         <v>42477</v>
@@ -14352,7 +14349,7 @@
         <v>5553957443</v>
       </c>
       <c r="B236" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C236" s="1">
         <v>42478</v>
@@ -14411,7 +14408,7 @@
         <v>5553957443</v>
       </c>
       <c r="B237" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C237" s="1">
         <v>42479</v>
@@ -14470,7 +14467,7 @@
         <v>5553957443</v>
       </c>
       <c r="B238" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C238" s="1">
         <v>42480</v>
@@ -14529,7 +14526,7 @@
         <v>5553957443</v>
       </c>
       <c r="B239" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C239" s="1">
         <v>42481</v>
@@ -14588,7 +14585,7 @@
         <v>5553957443</v>
       </c>
       <c r="B240" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C240" s="1">
         <v>42482</v>
@@ -14647,7 +14644,7 @@
         <v>5553957443</v>
       </c>
       <c r="B241" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C241" s="1">
         <v>42483</v>
@@ -14706,7 +14703,7 @@
         <v>5553957443</v>
       </c>
       <c r="B242" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C242" s="1">
         <v>42484</v>
@@ -14765,7 +14762,7 @@
         <v>5553957443</v>
       </c>
       <c r="B243" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C243" s="1">
         <v>42485</v>
@@ -14824,7 +14821,7 @@
         <v>5553957443</v>
       </c>
       <c r="B244" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C244" s="1">
         <v>42486</v>
@@ -14883,7 +14880,7 @@
         <v>5553957443</v>
       </c>
       <c r="B245" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C245" s="1">
         <v>42487</v>
@@ -14942,7 +14939,7 @@
         <v>5553957443</v>
       </c>
       <c r="B246" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C246" s="1">
         <v>42488</v>
@@ -15001,7 +14998,7 @@
         <v>5553957443</v>
       </c>
       <c r="B247" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C247" s="1">
         <v>42489</v>
@@ -15060,7 +15057,7 @@
         <v>5553957443</v>
       </c>
       <c r="B248" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C248" s="1">
         <v>42490</v>
@@ -15119,7 +15116,7 @@
         <v>5553957443</v>
       </c>
       <c r="B249" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C249" s="1">
         <v>42491</v>
@@ -15178,7 +15175,7 @@
         <v>5553957443</v>
       </c>
       <c r="B250" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C250" s="1">
         <v>42492</v>
@@ -15237,7 +15234,7 @@
         <v>5553957443</v>
       </c>
       <c r="B251" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C251" s="1">
         <v>42493</v>
@@ -15296,7 +15293,7 @@
         <v>5553957443</v>
       </c>
       <c r="B252" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C252" s="1">
         <v>42494</v>
@@ -15355,7 +15352,7 @@
         <v>5553957443</v>
       </c>
       <c r="B253" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C253" s="1">
         <v>42495</v>
@@ -15414,7 +15411,7 @@
         <v>5553957443</v>
       </c>
       <c r="B254" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C254" s="1">
         <v>42496</v>
@@ -15473,7 +15470,7 @@
         <v>5553957443</v>
       </c>
       <c r="B255" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C255" s="1">
         <v>42497</v>
@@ -15532,7 +15529,7 @@
         <v>5553957443</v>
       </c>
       <c r="B256" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C256" s="1">
         <v>42498</v>
@@ -15591,7 +15588,7 @@
         <v>5553957443</v>
       </c>
       <c r="B257" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C257" s="1">
         <v>42499</v>
@@ -15650,7 +15647,7 @@
         <v>5553957443</v>
       </c>
       <c r="B258" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C258" s="1">
         <v>42500</v>
@@ -15709,7 +15706,7 @@
         <v>5553957443</v>
       </c>
       <c r="B259" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C259" s="1">
         <v>42501</v>
@@ -15768,7 +15765,7 @@
         <v>5553957443</v>
       </c>
       <c r="B260" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C260" s="1">
         <v>42502</v>
@@ -15827,7 +15824,7 @@
         <v>5577150313</v>
       </c>
       <c r="B261" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C261" s="1">
         <v>42472</v>
@@ -15886,7 +15883,7 @@
         <v>5577150313</v>
       </c>
       <c r="B262" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C262" s="1">
         <v>42473</v>
@@ -15945,7 +15942,7 @@
         <v>5577150313</v>
       </c>
       <c r="B263" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C263" s="1">
         <v>42474</v>
@@ -16004,7 +16001,7 @@
         <v>5577150313</v>
       </c>
       <c r="B264" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C264" s="1">
         <v>42475</v>
@@ -16063,7 +16060,7 @@
         <v>5577150313</v>
       </c>
       <c r="B265" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C265" s="1">
         <v>42476</v>
@@ -16122,7 +16119,7 @@
         <v>5577150313</v>
       </c>
       <c r="B266" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C266" s="1">
         <v>42477</v>
@@ -16181,7 +16178,7 @@
         <v>5577150313</v>
       </c>
       <c r="B267" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C267" s="1">
         <v>42478</v>
@@ -16240,7 +16237,7 @@
         <v>5577150313</v>
       </c>
       <c r="B268" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C268" s="1">
         <v>42479</v>
@@ -16299,7 +16296,7 @@
         <v>5577150313</v>
       </c>
       <c r="B269" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C269" s="1">
         <v>42480</v>
@@ -16358,7 +16355,7 @@
         <v>5577150313</v>
       </c>
       <c r="B270" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C270" s="1">
         <v>42481</v>
@@ -16417,7 +16414,7 @@
         <v>5577150313</v>
       </c>
       <c r="B271" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C271" s="1">
         <v>42482</v>
@@ -16476,7 +16473,7 @@
         <v>5577150313</v>
       </c>
       <c r="B272" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C272" s="1">
         <v>42483</v>
@@ -16535,7 +16532,7 @@
         <v>5577150313</v>
       </c>
       <c r="B273" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C273" s="1">
         <v>42484</v>
@@ -16594,7 +16591,7 @@
         <v>5577150313</v>
       </c>
       <c r="B274" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C274" s="1">
         <v>42485</v>
@@ -16653,7 +16650,7 @@
         <v>5577150313</v>
       </c>
       <c r="B275" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C275" s="1">
         <v>42486</v>
@@ -16712,7 +16709,7 @@
         <v>5577150313</v>
       </c>
       <c r="B276" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C276" s="1">
         <v>42487</v>
@@ -16771,7 +16768,7 @@
         <v>5577150313</v>
       </c>
       <c r="B277" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C277" s="1">
         <v>42488</v>
@@ -16830,7 +16827,7 @@
         <v>5577150313</v>
       </c>
       <c r="B278" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C278" s="1">
         <v>42489</v>
@@ -16889,7 +16886,7 @@
         <v>5577150313</v>
       </c>
       <c r="B279" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C279" s="1">
         <v>42490</v>
@@ -16948,7 +16945,7 @@
         <v>5577150313</v>
       </c>
       <c r="B280" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C280" s="1">
         <v>42491</v>
@@ -17007,7 +17004,7 @@
         <v>5577150313</v>
       </c>
       <c r="B281" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C281" s="1">
         <v>42492</v>
@@ -17066,7 +17063,7 @@
         <v>5577150313</v>
       </c>
       <c r="B282" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C282" s="1">
         <v>42493</v>
@@ -17125,7 +17122,7 @@
         <v>5577150313</v>
       </c>
       <c r="B283" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C283" s="1">
         <v>42494</v>
@@ -17184,7 +17181,7 @@
         <v>5577150313</v>
       </c>
       <c r="B284" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C284" s="1">
         <v>42495</v>
@@ -17243,7 +17240,7 @@
         <v>5577150313</v>
       </c>
       <c r="B285" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C285" s="1">
         <v>42500</v>
@@ -17302,7 +17299,7 @@
         <v>5577150313</v>
       </c>
       <c r="B286" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C286" s="1">
         <v>42501</v>
@@ -17361,7 +17358,7 @@
         <v>6117666160</v>
       </c>
       <c r="B287" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C287" s="1">
         <v>42476</v>
@@ -17420,7 +17417,7 @@
         <v>6117666160</v>
       </c>
       <c r="B288" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C288" s="1">
         <v>42477</v>
@@ -17479,7 +17476,7 @@
         <v>6117666160</v>
       </c>
       <c r="B289" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C289" s="1">
         <v>42478</v>
@@ -17538,7 +17535,7 @@
         <v>6117666160</v>
       </c>
       <c r="B290" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C290" s="1">
         <v>42479</v>
@@ -17597,7 +17594,7 @@
         <v>6117666160</v>
       </c>
       <c r="B291" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C291" s="1">
         <v>42480</v>
@@ -17656,7 +17653,7 @@
         <v>6117666160</v>
       </c>
       <c r="B292" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C292" s="1">
         <v>42481</v>
@@ -17715,7 +17712,7 @@
         <v>6117666160</v>
       </c>
       <c r="B293" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C293" s="1">
         <v>42482</v>
@@ -17774,7 +17771,7 @@
         <v>6117666160</v>
       </c>
       <c r="B294" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C294" s="1">
         <v>42483</v>
@@ -17833,7 +17830,7 @@
         <v>6117666160</v>
       </c>
       <c r="B295" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C295" s="1">
         <v>42484</v>
@@ -17892,7 +17889,7 @@
         <v>6117666160</v>
       </c>
       <c r="B296" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C296" s="1">
         <v>42487</v>
@@ -17951,7 +17948,7 @@
         <v>6117666160</v>
       </c>
       <c r="B297" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C297" s="1">
         <v>42488</v>
@@ -18010,7 +18007,7 @@
         <v>6117666160</v>
       </c>
       <c r="B298" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C298" s="1">
         <v>42489</v>
@@ -18069,7 +18066,7 @@
         <v>6117666160</v>
       </c>
       <c r="B299" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C299" s="1">
         <v>42491</v>
@@ -18128,7 +18125,7 @@
         <v>6117666160</v>
       </c>
       <c r="B300" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C300" s="1">
         <v>42495</v>
@@ -18187,7 +18184,7 @@
         <v>6117666160</v>
       </c>
       <c r="B301" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C301" s="1">
         <v>42496</v>
@@ -18246,7 +18243,7 @@
         <v>6117666160</v>
       </c>
       <c r="B302" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C302" s="1">
         <v>42497</v>
@@ -18305,7 +18302,7 @@
         <v>6117666160</v>
       </c>
       <c r="B303" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C303" s="1">
         <v>42498</v>
@@ -18364,7 +18361,7 @@
         <v>6117666160</v>
       </c>
       <c r="B304" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C304" s="1">
         <v>42499</v>
@@ -18423,7 +18420,7 @@
         <v>6775888955</v>
       </c>
       <c r="B305" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C305" s="1">
         <v>42473</v>
@@ -18482,7 +18479,7 @@
         <v>6775888955</v>
       </c>
       <c r="B306" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C306" s="1">
         <v>42474</v>
@@ -18541,7 +18538,7 @@
         <v>6775888955</v>
       </c>
       <c r="B307" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C307" s="1">
         <v>42475</v>
@@ -18600,7 +18597,7 @@
         <v>6962181067</v>
       </c>
       <c r="B308" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C308" s="1">
         <v>42472</v>
@@ -18659,7 +18656,7 @@
         <v>6962181067</v>
       </c>
       <c r="B309" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C309" s="1">
         <v>42473</v>
@@ -18718,7 +18715,7 @@
         <v>6962181067</v>
       </c>
       <c r="B310" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C310" s="1">
         <v>42474</v>
@@ -18777,7 +18774,7 @@
         <v>6962181067</v>
       </c>
       <c r="B311" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C311" s="1">
         <v>42475</v>
@@ -18836,7 +18833,7 @@
         <v>6962181067</v>
       </c>
       <c r="B312" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C312" s="1">
         <v>42476</v>
@@ -18895,7 +18892,7 @@
         <v>6962181067</v>
       </c>
       <c r="B313" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C313" s="1">
         <v>42477</v>
@@ -18954,7 +18951,7 @@
         <v>6962181067</v>
       </c>
       <c r="B314" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C314" s="1">
         <v>42478</v>
@@ -19013,7 +19010,7 @@
         <v>6962181067</v>
       </c>
       <c r="B315" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C315" s="1">
         <v>42479</v>
@@ -19072,7 +19069,7 @@
         <v>6962181067</v>
       </c>
       <c r="B316" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C316" s="1">
         <v>42480</v>
@@ -19131,7 +19128,7 @@
         <v>6962181067</v>
       </c>
       <c r="B317" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C317" s="1">
         <v>42481</v>
@@ -19190,7 +19187,7 @@
         <v>6962181067</v>
       </c>
       <c r="B318" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C318" s="1">
         <v>42482</v>
@@ -19249,7 +19246,7 @@
         <v>6962181067</v>
       </c>
       <c r="B319" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C319" s="1">
         <v>42483</v>
@@ -19308,7 +19305,7 @@
         <v>6962181067</v>
       </c>
       <c r="B320" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C320" s="1">
         <v>42484</v>
@@ -19367,7 +19364,7 @@
         <v>6962181067</v>
       </c>
       <c r="B321" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C321" s="1">
         <v>42485</v>
@@ -19426,7 +19423,7 @@
         <v>6962181067</v>
       </c>
       <c r="B322" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C322" s="1">
         <v>42486</v>
@@ -19485,7 +19482,7 @@
         <v>6962181067</v>
       </c>
       <c r="B323" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C323" s="1">
         <v>42487</v>
@@ -19544,7 +19541,7 @@
         <v>6962181067</v>
       </c>
       <c r="B324" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C324" s="1">
         <v>42488</v>
@@ -19603,7 +19600,7 @@
         <v>6962181067</v>
       </c>
       <c r="B325" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C325" s="1">
         <v>42489</v>
@@ -19662,7 +19659,7 @@
         <v>6962181067</v>
       </c>
       <c r="B326" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C326" s="1">
         <v>42490</v>
@@ -19721,7 +19718,7 @@
         <v>6962181067</v>
       </c>
       <c r="B327" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C327" s="1">
         <v>42491</v>
@@ -19780,7 +19777,7 @@
         <v>6962181067</v>
       </c>
       <c r="B328" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C328" s="1">
         <v>42492</v>
@@ -19839,7 +19836,7 @@
         <v>6962181067</v>
       </c>
       <c r="B329" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C329" s="1">
         <v>42493</v>
@@ -19898,7 +19895,7 @@
         <v>6962181067</v>
       </c>
       <c r="B330" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C330" s="1">
         <v>42494</v>
@@ -19957,7 +19954,7 @@
         <v>6962181067</v>
       </c>
       <c r="B331" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C331" s="1">
         <v>42495</v>
@@ -20016,7 +20013,7 @@
         <v>6962181067</v>
       </c>
       <c r="B332" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C332" s="1">
         <v>42496</v>
@@ -20075,7 +20072,7 @@
         <v>6962181067</v>
       </c>
       <c r="B333" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C333" s="1">
         <v>42497</v>
@@ -20134,7 +20131,7 @@
         <v>6962181067</v>
       </c>
       <c r="B334" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C334" s="1">
         <v>42498</v>
@@ -20193,7 +20190,7 @@
         <v>6962181067</v>
       </c>
       <c r="B335" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C335" s="1">
         <v>42499</v>
@@ -20252,7 +20249,7 @@
         <v>6962181067</v>
       </c>
       <c r="B336" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C336" s="1">
         <v>42500</v>
@@ -20311,7 +20308,7 @@
         <v>6962181067</v>
       </c>
       <c r="B337" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C337" s="1">
         <v>42501</v>
@@ -20370,7 +20367,7 @@
         <v>6962181067</v>
       </c>
       <c r="B338" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C338" s="1">
         <v>42502</v>
@@ -20429,7 +20426,7 @@
         <v>7007744171</v>
       </c>
       <c r="B339" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C339" s="1">
         <v>42476</v>
@@ -20488,7 +20485,7 @@
         <v>7007744171</v>
       </c>
       <c r="B340" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C340" s="1">
         <v>42491</v>
@@ -20547,7 +20544,7 @@
         <v>7086361926</v>
       </c>
       <c r="B341" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C341" s="1">
         <v>42472</v>
@@ -20606,7 +20603,7 @@
         <v>7086361926</v>
       </c>
       <c r="B342" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C342" s="1">
         <v>42473</v>
@@ -20665,7 +20662,7 @@
         <v>7086361926</v>
       </c>
       <c r="B343" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C343" s="1">
         <v>42474</v>
@@ -20724,7 +20721,7 @@
         <v>7086361926</v>
       </c>
       <c r="B344" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C344" s="1">
         <v>42475</v>
@@ -20783,7 +20780,7 @@
         <v>7086361926</v>
       </c>
       <c r="B345" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C345" s="1">
         <v>42479</v>
@@ -20842,7 +20839,7 @@
         <v>7086361926</v>
       </c>
       <c r="B346" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C346" s="1">
         <v>42480</v>
@@ -20901,7 +20898,7 @@
         <v>7086361926</v>
       </c>
       <c r="B347" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C347" s="1">
         <v>42481</v>
@@ -20960,7 +20957,7 @@
         <v>7086361926</v>
       </c>
       <c r="B348" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C348" s="1">
         <v>42482</v>
@@ -21019,7 +21016,7 @@
         <v>7086361926</v>
       </c>
       <c r="B349" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C349" s="1">
         <v>42484</v>
@@ -21078,7 +21075,7 @@
         <v>7086361926</v>
       </c>
       <c r="B350" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C350" s="1">
         <v>42485</v>
@@ -21137,7 +21134,7 @@
         <v>7086361926</v>
       </c>
       <c r="B351" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C351" s="1">
         <v>42486</v>
@@ -21196,7 +21193,7 @@
         <v>7086361926</v>
       </c>
       <c r="B352" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C352" s="1">
         <v>42487</v>
@@ -21255,7 +21252,7 @@
         <v>7086361926</v>
       </c>
       <c r="B353" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C353" s="1">
         <v>42488</v>
@@ -21314,7 +21311,7 @@
         <v>7086361926</v>
       </c>
       <c r="B354" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C354" s="1">
         <v>42490</v>
@@ -21373,7 +21370,7 @@
         <v>7086361926</v>
       </c>
       <c r="B355" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C355" s="1">
         <v>42491</v>
@@ -21432,7 +21429,7 @@
         <v>7086361926</v>
       </c>
       <c r="B356" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C356" s="1">
         <v>42492</v>
@@ -21491,7 +21488,7 @@
         <v>7086361926</v>
       </c>
       <c r="B357" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C357" s="1">
         <v>42493</v>
@@ -21550,7 +21547,7 @@
         <v>7086361926</v>
       </c>
       <c r="B358" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C358" s="1">
         <v>42494</v>
@@ -21609,7 +21606,7 @@
         <v>7086361926</v>
       </c>
       <c r="B359" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C359" s="1">
         <v>42496</v>
@@ -21668,7 +21665,7 @@
         <v>7086361926</v>
       </c>
       <c r="B360" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C360" s="1">
         <v>42497</v>
@@ -21727,7 +21724,7 @@
         <v>7086361926</v>
       </c>
       <c r="B361" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C361" s="1">
         <v>42498</v>
@@ -21786,7 +21783,7 @@
         <v>7086361926</v>
       </c>
       <c r="B362" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C362" s="1">
         <v>42499</v>
@@ -21845,7 +21842,7 @@
         <v>7086361926</v>
       </c>
       <c r="B363" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C363" s="1">
         <v>42501</v>
@@ -21904,7 +21901,7 @@
         <v>7086361926</v>
       </c>
       <c r="B364" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C364" s="1">
         <v>42502</v>
@@ -21963,7 +21960,7 @@
         <v>8053475328</v>
       </c>
       <c r="B365" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C365" s="1">
         <v>42480</v>
@@ -22022,7 +22019,7 @@
         <v>8053475328</v>
       </c>
       <c r="B366" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C366" s="1">
         <v>42483</v>
@@ -22081,7 +22078,7 @@
         <v>8053475328</v>
       </c>
       <c r="B367" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C367" s="1">
         <v>42497</v>
@@ -22140,7 +22137,7 @@
         <v>8378563200</v>
       </c>
       <c r="B368" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C368" s="1">
         <v>42472</v>
@@ -22199,7 +22196,7 @@
         <v>8378563200</v>
       </c>
       <c r="B369" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C369" s="1">
         <v>42473</v>
@@ -22258,7 +22255,7 @@
         <v>8378563200</v>
       </c>
       <c r="B370" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C370" s="1">
         <v>42474</v>
@@ -22317,7 +22314,7 @@
         <v>8378563200</v>
       </c>
       <c r="B371" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C371" s="1">
         <v>42475</v>
@@ -22376,7 +22373,7 @@
         <v>8378563200</v>
       </c>
       <c r="B372" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C372" s="1">
         <v>42476</v>
@@ -22435,7 +22432,7 @@
         <v>8378563200</v>
       </c>
       <c r="B373" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C373" s="1">
         <v>42477</v>
@@ -22494,7 +22491,7 @@
         <v>8378563200</v>
       </c>
       <c r="B374" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C374" s="1">
         <v>42478</v>
@@ -22553,7 +22550,7 @@
         <v>8378563200</v>
       </c>
       <c r="B375" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C375" s="1">
         <v>42479</v>
@@ -22612,7 +22609,7 @@
         <v>8378563200</v>
       </c>
       <c r="B376" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C376" s="1">
         <v>42480</v>
@@ -22671,7 +22668,7 @@
         <v>8378563200</v>
       </c>
       <c r="B377" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C377" s="1">
         <v>42481</v>
@@ -22730,7 +22727,7 @@
         <v>8378563200</v>
       </c>
       <c r="B378" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C378" s="1">
         <v>42482</v>
@@ -22789,7 +22786,7 @@
         <v>8378563200</v>
       </c>
       <c r="B379" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C379" s="1">
         <v>42483</v>
@@ -22848,7 +22845,7 @@
         <v>8378563200</v>
       </c>
       <c r="B380" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C380" s="1">
         <v>42484</v>
@@ -22907,7 +22904,7 @@
         <v>8378563200</v>
       </c>
       <c r="B381" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C381" s="1">
         <v>42485</v>
@@ -22966,7 +22963,7 @@
         <v>8378563200</v>
       </c>
       <c r="B382" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C382" s="1">
         <v>42485</v>
@@ -23025,7 +23022,7 @@
         <v>8378563200</v>
       </c>
       <c r="B383" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C383" s="1">
         <v>42486</v>
@@ -23084,7 +23081,7 @@
         <v>8378563200</v>
       </c>
       <c r="B384" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C384" s="1">
         <v>42487</v>
@@ -23143,7 +23140,7 @@
         <v>8378563200</v>
       </c>
       <c r="B385" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C385" s="1">
         <v>42488</v>
@@ -23202,7 +23199,7 @@
         <v>8378563200</v>
       </c>
       <c r="B386" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C386" s="1">
         <v>42489</v>
@@ -23261,7 +23258,7 @@
         <v>8378563200</v>
       </c>
       <c r="B387" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C387" s="1">
         <v>42490</v>
@@ -23320,7 +23317,7 @@
         <v>8378563200</v>
       </c>
       <c r="B388" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C388" s="1">
         <v>42491</v>
@@ -23379,7 +23376,7 @@
         <v>8378563200</v>
       </c>
       <c r="B389" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C389" s="1">
         <v>42492</v>
@@ -23438,7 +23435,7 @@
         <v>8378563200</v>
       </c>
       <c r="B390" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C390" s="1">
         <v>42493</v>
@@ -23497,7 +23494,7 @@
         <v>8378563200</v>
       </c>
       <c r="B391" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C391" s="1">
         <v>42494</v>
@@ -23556,7 +23553,7 @@
         <v>8378563200</v>
       </c>
       <c r="B392" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C392" s="1">
         <v>42495</v>
@@ -23615,7 +23612,7 @@
         <v>8378563200</v>
       </c>
       <c r="B393" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C393" s="1">
         <v>42496</v>
@@ -23674,7 +23671,7 @@
         <v>8378563200</v>
       </c>
       <c r="B394" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C394" s="1">
         <v>42497</v>
@@ -23733,7 +23730,7 @@
         <v>8378563200</v>
       </c>
       <c r="B395" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C395" s="1">
         <v>42498</v>
@@ -23792,7 +23789,7 @@
         <v>8378563200</v>
       </c>
       <c r="B396" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C396" s="1">
         <v>42499</v>
@@ -23851,7 +23848,7 @@
         <v>8378563200</v>
       </c>
       <c r="B397" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C397" s="1">
         <v>42500</v>
@@ -23910,7 +23907,7 @@
         <v>8378563200</v>
       </c>
       <c r="B398" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C398" s="1">
         <v>42501</v>
@@ -23969,7 +23966,7 @@
         <v>8378563200</v>
       </c>
       <c r="B399" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C399" s="1">
         <v>42502</v>
@@ -24028,7 +24025,7 @@
         <v>8792009665</v>
       </c>
       <c r="B400" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C400" s="1">
         <v>42472</v>
@@ -24087,7 +24084,7 @@
         <v>8792009665</v>
       </c>
       <c r="B401" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C401" s="1">
         <v>42473</v>
@@ -24146,7 +24143,7 @@
         <v>8792009665</v>
       </c>
       <c r="B402" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C402" s="1">
         <v>42474</v>
@@ -24205,7 +24202,7 @@
         <v>8792009665</v>
       </c>
       <c r="B403" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C403" s="1">
         <v>42475</v>
@@ -24264,7 +24261,7 @@
         <v>8792009665</v>
       </c>
       <c r="B404" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C404" s="1">
         <v>42480</v>
@@ -24323,7 +24320,7 @@
         <v>8792009665</v>
       </c>
       <c r="B405" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C405" s="1">
         <v>42482</v>
@@ -24382,7 +24379,7 @@
         <v>8792009665</v>
       </c>
       <c r="B406" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C406" s="1">
         <v>42483</v>
@@ -24441,7 +24438,7 @@
         <v>8792009665</v>
       </c>
       <c r="B407" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C407" s="1">
         <v>42487</v>
@@ -24500,7 +24497,7 @@
         <v>8792009665</v>
       </c>
       <c r="B408" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C408" s="1">
         <v>42488</v>
@@ -24559,7 +24556,7 @@
         <v>8792009665</v>
       </c>
       <c r="B409" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C409" s="1">
         <v>42489</v>
@@ -24618,7 +24615,7 @@
         <v>8792009665</v>
       </c>
       <c r="B410" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C410" s="1">
         <v>42490</v>
@@ -24677,7 +24674,7 @@
         <v>8792009665</v>
       </c>
       <c r="B411" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C411" s="1">
         <v>42491</v>
@@ -24736,7 +24733,7 @@
         <v>8792009665</v>
       </c>
       <c r="B412" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C412" s="1">
         <v>42492</v>
@@ -24795,7 +24792,7 @@
         <v>8792009665</v>
       </c>
       <c r="B413" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C413" s="1">
         <v>42493</v>
@@ -24854,7 +24851,7 @@
         <v>8792009665</v>
       </c>
       <c r="B414" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C414" s="1">
         <v>42494</v>
